--- a/Munkafüzet1.xlsx
+++ b/Munkafüzet1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kovács Zalán\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zöld Füst\Smaragd pontyok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC3CDAE-9235-487C-B5D1-6CD6DCC8AA31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7B240B00-C1D3-4D84-B0C2-9DD7679067D4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Épületek" sheetId="1" r:id="rId1"/>
+    <sheet name="Lakosok" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
-  <si>
-    <t>épület azonosító</t>
-  </si>
-  <si>
-    <t>név</t>
-  </si>
-  <si>
-    <t>típus</t>
-  </si>
-  <si>
-    <t>építés éve</t>
-  </si>
-  <si>
-    <t>hasznos terület</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>lakóház</t>
   </si>
@@ -139,12 +124,81 @@
   </si>
   <si>
     <t>Kovács</t>
+  </si>
+  <si>
+    <t>nev</t>
+  </si>
+  <si>
+    <t>tipus</t>
+  </si>
+  <si>
+    <t>epites eve</t>
+  </si>
+  <si>
+    <t>hasznos terulet</t>
+  </si>
+  <si>
+    <t>foglalokzas</t>
+  </si>
+  <si>
+    <t>lakohely</t>
+  </si>
+  <si>
+    <t>szuletesi_ev</t>
+  </si>
+  <si>
+    <t>Lakatos Brandon</t>
+  </si>
+  <si>
+    <t>Közmunkás</t>
+  </si>
+  <si>
+    <t>Lakatos Erzsébet</t>
+  </si>
+  <si>
+    <t>Szakácsnő</t>
+  </si>
+  <si>
+    <t>Lakatos Jázmin</t>
+  </si>
+  <si>
+    <t>Tanuló</t>
+  </si>
+  <si>
+    <t>Lakatos István</t>
+  </si>
+  <si>
+    <t>Lakatos Mária</t>
+  </si>
+  <si>
+    <t>Takarító</t>
+  </si>
+  <si>
+    <t>Virágos Péter</t>
+  </si>
+  <si>
+    <t>Virágos Anna</t>
+  </si>
+  <si>
+    <t>Virágos Patrik</t>
+  </si>
+  <si>
+    <t>Virágos Bence</t>
+  </si>
+  <si>
+    <t>Balogh Kristóf</t>
+  </si>
+  <si>
+    <t>Balogh János</t>
+  </si>
+  <si>
+    <t>Balogh Gréta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -175,8 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -490,11 +545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F987D93D-24D5-4631-B050-8EF1AAD8B22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,256 +557,456 @@
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>2003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1995</v>
+      </c>
+      <c r="D4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+      <c r="D5" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1970</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1950</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1986</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
+      </c>
+      <c r="D9" s="1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1990</v>
+      </c>
+      <c r="D10" s="1">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1960</v>
+      </c>
+      <c r="D11" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>2004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>1990</v>
+      </c>
+      <c r="D16" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1958</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1756</v>
+      </c>
+      <c r="D20" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1981</v>
+      </c>
+      <c r="D21" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1990</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
       <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>1992</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>1994</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>2015</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>45</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>1970</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1971</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
